--- a/KiemHangExcel/KiemHang_Tu_20-06-2016.xlsx
+++ b/KiemHangExcel/KiemHang_Tu_20-06-2016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_QuanLyBanDayNit\KIỂM HÀNG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_QuanLyBanDayNit\KiemHangExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9195" windowHeight="1275" tabRatio="690" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9195" windowHeight="1275" tabRatio="690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Đầu" sheetId="1" r:id="rId1"/>
@@ -2206,10 +2206,10 @@
   <dimension ref="A1:AV288"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H91" sqref="H91"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -2265,7 +2265,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="15">
         <f>SUM(H3:H121)</f>
-        <v>108644</v>
+        <v>108924</v>
       </c>
       <c r="I1" s="116"/>
       <c r="J1" s="168"/>
@@ -3350,15 +3350,17 @@
       <c r="D29" s="3">
         <v>2.8</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9">
+        <v>100</v>
+      </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H29" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AH29" s="80"/>
       <c r="AI29" s="80"/>
@@ -6878,7 +6880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10046,11 +10048,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EZ809"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I109" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane xSplit="8" ySplit="4" topLeftCell="I83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AZ89" sqref="AZ89"/>
+      <selection pane="bottomRight" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -10066,7 +10068,8 @@
     <col min="9" max="9" width="14.5" style="97" customWidth="1"/>
     <col min="10" max="37" width="10" style="97" hidden="1" customWidth="1"/>
     <col min="38" max="39" width="10" style="98" hidden="1" customWidth="1"/>
-    <col min="40" max="50" width="10" style="97" hidden="1" customWidth="1"/>
+    <col min="40" max="49" width="10" style="97" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="0.25" style="97" customWidth="1"/>
     <col min="51" max="52" width="10" style="153" customWidth="1"/>
     <col min="53" max="53" width="10" style="161" customWidth="1"/>
     <col min="54" max="54" width="10" style="145" customWidth="1"/>
@@ -10094,7 +10097,7 @@
       </c>
       <c r="B1" s="91">
         <f>Đầu!H1+Dây!I1+'Sản phẩm từ 20-6-2016'!I2</f>
-        <v>295515</v>
+        <v>295795</v>
       </c>
       <c r="D1" s="93"/>
       <c r="E1" s="109"/>
@@ -14254,7 +14257,7 @@
       <c r="BE89" s="124"/>
       <c r="BF89" s="124"/>
     </row>
-    <row r="90" spans="1:58" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:58" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <f t="shared" si="9"/>
         <v>86</v>
